--- a/Team-Data/2008-09/11-16-2008-09.xlsx
+++ b/Team-Data/2008-09/11-16-2008-09.xlsx
@@ -811,10 +811,10 @@
         <v>4</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF2" t="n">
         <v>5</v>
@@ -862,28 +862,28 @@
         <v>18</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW2" t="n">
         <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY2" t="n">
         <v>20</v>
       </c>
       <c r="AZ2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA2" t="n">
         <v>17</v>
       </c>
       <c r="BB2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC2" t="n">
         <v>7</v>
@@ -915,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -933,61 +933,61 @@
         <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="M3" t="n">
-        <v>16.9</v>
+        <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.314</v>
+        <v>0.306</v>
       </c>
       <c r="O3" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="P3" t="n">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.78</v>
+        <v>0.763</v>
       </c>
       <c r="R3" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S3" t="n">
-        <v>32.9</v>
+        <v>32.3</v>
       </c>
       <c r="T3" t="n">
-        <v>44</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>20.5</v>
+        <v>20.1</v>
       </c>
       <c r="V3" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="AA3" t="n">
         <v>25.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.7</v>
+        <v>94.3</v>
       </c>
       <c r="AC3" t="n">
         <v>4.5</v>
@@ -999,13 +999,13 @@
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
         <v>28</v>
@@ -1017,55 +1017,55 @@
         <v>18</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
         <v>2</v>
       </c>
       <c r="AP3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
         <v>18</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AT3" t="n">
         <v>10</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AY3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA3" t="n">
         <v>2</v>
       </c>
       <c r="BB3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC3" t="n">
         <v>6</v>
@@ -1205,16 +1205,16 @@
         <v>24</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AR4" t="n">
         <v>11</v>
@@ -1238,13 +1238,13 @@
         <v>25</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.444</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
@@ -1297,43 +1297,43 @@
         <v>35.1</v>
       </c>
       <c r="J5" t="n">
-        <v>85.2</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.412</v>
+        <v>0.42</v>
       </c>
       <c r="L5" t="n">
         <v>5.3</v>
       </c>
       <c r="M5" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.364</v>
+        <v>0.368</v>
       </c>
       <c r="O5" t="n">
-        <v>21</v>
+        <v>22.2</v>
       </c>
       <c r="P5" t="n">
-        <v>26.3</v>
+        <v>28.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.797</v>
+        <v>0.79</v>
       </c>
       <c r="R5" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S5" t="n">
-        <v>32.6</v>
+        <v>31.9</v>
       </c>
       <c r="T5" t="n">
-        <v>45.2</v>
+        <v>44.7</v>
       </c>
       <c r="U5" t="n">
-        <v>17.6</v>
+        <v>18.5</v>
       </c>
       <c r="V5" t="n">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
       <c r="W5" t="n">
         <v>8.699999999999999</v>
@@ -1342,43 +1342,43 @@
         <v>5.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.6</v>
+        <v>22.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
         <v>16</v>
       </c>
       <c r="AG5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
         <v>15</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
         <v>18</v>
@@ -1387,52 +1387,52 @@
         <v>26</v>
       </c>
       <c r="AN5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV5" t="n">
         <v>13</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AW5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX5" t="n">
         <v>9</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AY5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB5" t="n">
         <v>14</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>18</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>14</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>17</v>
-      </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,157 +1461,157 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.889</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37.7</v>
+        <v>36.8</v>
       </c>
       <c r="J6" t="n">
-        <v>77.8</v>
+        <v>76.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.484</v>
+        <v>0.479</v>
       </c>
       <c r="L6" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="M6" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.339</v>
+        <v>0.328</v>
       </c>
       <c r="O6" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="P6" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.791</v>
+        <v>0.783</v>
       </c>
       <c r="R6" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="T6" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="U6" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13.8</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.9</v>
+        <v>101.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AM6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AS6" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AT6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
       </c>
       <c r="AX6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB6" t="n">
         <v>5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>4</v>
       </c>
       <c r="BC6" t="n">
         <v>2</v>
@@ -1721,7 +1721,7 @@
         <v>-3.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
         <v>26</v>
@@ -1739,7 +1739,7 @@
         <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK7" t="n">
         <v>25</v>
@@ -1754,16 +1754,16 @@
         <v>28</v>
       </c>
       <c r="AO7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>5</v>
       </c>
       <c r="AS7" t="n">
         <v>4</v>
@@ -1775,7 +1775,7 @@
         <v>19</v>
       </c>
       <c r="AV7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW7" t="n">
         <v>14</v>
@@ -1784,16 +1784,16 @@
         <v>16</v>
       </c>
       <c r="AY7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA7" t="n">
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC7" t="n">
         <v>22</v>
@@ -1903,13 +1903,13 @@
         <v>0.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
       </c>
       <c r="AF8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
         <v>12</v>
@@ -1924,7 +1924,7 @@
         <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
         <v>26</v>
@@ -1942,19 +1942,19 @@
         <v>3</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
         <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>11</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
         <v>28</v>
@@ -1978,7 +1978,7 @@
         <v>9</v>
       </c>
       <c r="BC8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -2085,13 +2085,13 @@
         <v>4.9</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>3</v>
       </c>
       <c r="AF9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG9" t="n">
         <v>4</v>
@@ -2106,10 +2106,10 @@
         <v>14</v>
       </c>
       <c r="AK9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM9" t="n">
         <v>19</v>
@@ -2118,7 +2118,7 @@
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP9" t="n">
         <v>9</v>
@@ -2130,31 +2130,31 @@
         <v>9</v>
       </c>
       <c r="AS9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT9" t="n">
         <v>12</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW9" t="n">
         <v>20</v>
       </c>
       <c r="AX9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA9" t="n">
         <v>5</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>16</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>6</v>
       </c>
       <c r="BB9" t="n">
         <v>7</v>
@@ -2267,13 +2267,13 @@
         <v>-0.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG10" t="n">
         <v>21</v>
@@ -2291,7 +2291,7 @@
         <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM10" t="n">
         <v>13</v>
@@ -2300,7 +2300,7 @@
         <v>27</v>
       </c>
       <c r="AO10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP10" t="n">
         <v>1</v>
@@ -2309,13 +2309,13 @@
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU10" t="n">
         <v>21</v>
@@ -2339,10 +2339,10 @@
         <v>1</v>
       </c>
       <c r="BB10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2449,19 +2449,19 @@
         <v>2.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -2470,28 +2470,28 @@
         <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM11" t="n">
         <v>14</v>
       </c>
-      <c r="AM11" t="n">
-        <v>15</v>
-      </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
         <v>16</v>
       </c>
       <c r="AP11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>12</v>
@@ -2503,7 +2503,7 @@
         <v>27</v>
       </c>
       <c r="AV11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW11" t="n">
         <v>18</v>
@@ -2631,16 +2631,16 @@
         <v>2</v>
       </c>
       <c r="AD12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF12" t="n">
         <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH12" t="n">
         <v>15</v>
@@ -2649,10 +2649,10 @@
         <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL12" t="n">
         <v>9</v>
@@ -2661,25 +2661,25 @@
         <v>5</v>
       </c>
       <c r="AN12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS12" t="n">
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
         <v>5</v>
@@ -2694,7 +2694,7 @@
         <v>2</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>23</v>
@@ -2813,7 +2813,7 @@
         <v>-13.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2831,7 +2831,7 @@
         <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2849,7 +2849,7 @@
         <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
         <v>27</v>
@@ -2870,19 +2870,19 @@
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX13" t="n">
         <v>5</v>
       </c>
       <c r="AY13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2917,157 +2917,157 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
         <v>7</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.857</v>
+        <v>0.875</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J14" t="n">
-        <v>85.59999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.439</v>
+        <v>0.442</v>
       </c>
       <c r="L14" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>17.6</v>
+        <v>16.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.366</v>
+        <v>0.391</v>
       </c>
       <c r="O14" t="n">
+        <v>22</v>
+      </c>
+      <c r="P14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="R14" t="n">
+        <v>14</v>
+      </c>
+      <c r="S14" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="V14" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>10</v>
+      </c>
+      <c r="X14" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="AA14" t="n">
         <v>23</v>
       </c>
-      <c r="P14" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.752</v>
-      </c>
-      <c r="R14" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="S14" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="T14" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="V14" t="n">
-        <v>14</v>
-      </c>
-      <c r="W14" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="X14" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>23.9</v>
-      </c>
       <c r="AB14" t="n">
-        <v>104.6</v>
+        <v>103.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.6</v>
+        <v>14.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
         <v>15</v>
       </c>
       <c r="AI14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO14" t="n">
         <v>7</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>3</v>
-      </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
         <v>19</v>
       </c>
       <c r="AR14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS14" t="n">
         <v>1</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>1</v>
@@ -3177,7 +3177,7 @@
         <v>-5.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>23</v>
@@ -3189,7 +3189,7 @@
         <v>25</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>25</v>
@@ -3210,16 +3210,16 @@
         <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>15</v>
       </c>
       <c r="AQ15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS15" t="n">
         <v>12</v>
@@ -3231,7 +3231,7 @@
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
         <v>8</v>
@@ -3359,13 +3359,13 @@
         <v>5.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG16" t="n">
         <v>12</v>
@@ -3377,7 +3377,7 @@
         <v>14</v>
       </c>
       <c r="AJ16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
         <v>6</v>
@@ -3389,13 +3389,13 @@
         <v>4</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
         <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ16" t="n">
         <v>23</v>
@@ -3404,16 +3404,16 @@
         <v>19</v>
       </c>
       <c r="AS16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU16" t="n">
         <v>20</v>
       </c>
       <c r="AV16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW16" t="n">
         <v>3</v>
@@ -3422,7 +3422,7 @@
         <v>18</v>
       </c>
       <c r="AY16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
         <v>5</v>
@@ -3463,82 +3463,82 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.455</v>
       </c>
       <c r="H17" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="I17" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.422</v>
+        <v>0.426</v>
       </c>
       <c r="L17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M17" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.351</v>
+        <v>0.358</v>
       </c>
       <c r="O17" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="P17" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="Q17" t="n">
         <v>0.751</v>
       </c>
       <c r="R17" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="S17" t="n">
-        <v>31.5</v>
+        <v>30.4</v>
       </c>
       <c r="T17" t="n">
-        <v>45.5</v>
+        <v>44.3</v>
       </c>
       <c r="U17" t="n">
         <v>20.5</v>
       </c>
       <c r="V17" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X17" t="n">
         <v>3.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>25.3</v>
+        <v>24.6</v>
       </c>
       <c r="AB17" t="n">
         <v>94.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1</v>
+        <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
@@ -3547,19 +3547,19 @@
         <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>2</v>
       </c>
       <c r="AI17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
         <v>26</v>
@@ -3571,13 +3571,13 @@
         <v>27</v>
       </c>
       <c r="AN17" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
@@ -3586,16 +3586,16 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AU17" t="n">
         <v>11</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AW17" t="n">
         <v>26</v>
@@ -3604,19 +3604,19 @@
         <v>27</v>
       </c>
       <c r="AY17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>3</v>
       </c>
       <c r="BB17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3756,7 +3756,7 @@
         <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP18" t="n">
         <v>29</v>
@@ -3792,7 +3792,7 @@
         <v>25</v>
       </c>
       <c r="BA18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
         <v>12</v>
@@ -3905,16 +3905,16 @@
         <v>-3.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>15</v>
@@ -3923,7 +3923,7 @@
         <v>24</v>
       </c>
       <c r="AJ19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK19" t="n">
         <v>19</v>
@@ -3938,19 +3938,19 @@
         <v>5</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AT19" t="n">
         <v>18</v>
@@ -3971,13 +3971,13 @@
         <v>18</v>
       </c>
       <c r="AZ19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA19" t="n">
         <v>17</v>
       </c>
       <c r="BB19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC19" t="n">
         <v>23</v>
@@ -4087,13 +4087,13 @@
         <v>2.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
         <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG20" t="n">
         <v>12</v>
@@ -4108,40 +4108,40 @@
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN20" t="n">
         <v>6</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>18</v>
       </c>
       <c r="AQ20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
         <v>26</v>
       </c>
       <c r="AS20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
         <v>9</v>
@@ -4150,13 +4150,13 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ20" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB20" t="n">
         <v>24</v>
@@ -4269,10 +4269,10 @@
         <v>1.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF21" t="n">
         <v>5</v>
@@ -4290,7 +4290,7 @@
         <v>4</v>
       </c>
       <c r="AK21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4305,7 +4305,7 @@
         <v>28</v>
       </c>
       <c r="AP21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>22</v>
@@ -4314,7 +4314,7 @@
         <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4332,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ21" t="n">
         <v>8</v>
@@ -4451,7 +4451,7 @@
         <v>-10.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4466,7 +4466,7 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ22" t="n">
         <v>3</v>
@@ -4481,31 +4481,31 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO22" t="n">
         <v>27</v>
       </c>
       <c r="AP22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ22" t="n">
         <v>24</v>
       </c>
       <c r="AR22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AT22" t="n">
         <v>6</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>8</v>
       </c>
       <c r="AU22" t="n">
         <v>28</v>
       </c>
       <c r="AV22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
         <v>19</v>
@@ -4514,7 +4514,7 @@
         <v>20</v>
       </c>
       <c r="AY22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ22" t="n">
         <v>21</v>
@@ -4633,10 +4633,10 @@
         <v>5.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF23" t="n">
         <v>5</v>
@@ -4654,10 +4654,10 @@
         <v>12</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
@@ -4666,7 +4666,7 @@
         <v>22</v>
       </c>
       <c r="AO23" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP23" t="n">
         <v>3</v>
@@ -4678,16 +4678,16 @@
         <v>9</v>
       </c>
       <c r="AS23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW23" t="n">
         <v>13</v>
@@ -4696,13 +4696,13 @@
         <v>1</v>
       </c>
       <c r="AY23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA23" t="n">
         <v>5</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>6</v>
       </c>
       <c r="BB23" t="n">
         <v>8</v>
@@ -4815,7 +4815,7 @@
         <v>3.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>12</v>
@@ -4830,13 +4830,13 @@
         <v>15</v>
       </c>
       <c r="AI24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4845,19 +4845,19 @@
         <v>28</v>
       </c>
       <c r="AN24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO24" t="n">
         <v>26</v>
       </c>
       <c r="AP24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ24" t="n">
         <v>20</v>
       </c>
       <c r="AR24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS24" t="n">
         <v>1</v>
@@ -4866,7 +4866,7 @@
         <v>1</v>
       </c>
       <c r="AU24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV24" t="n">
         <v>25</v>
@@ -4887,7 +4887,7 @@
         <v>27</v>
       </c>
       <c r="BB24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC24" t="n">
         <v>8</v>
@@ -4997,7 +4997,7 @@
         <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>3</v>
@@ -5009,7 +5009,7 @@
         <v>5</v>
       </c>
       <c r="AH25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
         <v>12</v>
@@ -5021,40 +5021,40 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM25" t="n">
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP25" t="n">
         <v>5</v>
       </c>
-      <c r="AP25" t="n">
-        <v>6</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR25" t="n">
         <v>29</v>
       </c>
       <c r="AS25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX25" t="n">
         <v>20</v>
@@ -5101,127 +5101,127 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
         <v>6</v>
       </c>
       <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8</v>
+      </c>
+      <c r="M26" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="O26" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="R26" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="S26" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>39</v>
+      </c>
+      <c r="U26" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="V26" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="AD26" t="n">
         <v>3</v>
       </c>
-      <c r="G26" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="H26" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="I26" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="L26" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="M26" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.402</v>
-      </c>
-      <c r="O26" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="P26" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.787</v>
-      </c>
-      <c r="R26" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>27</v>
-      </c>
-      <c r="T26" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="U26" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="V26" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="W26" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X26" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>11</v>
-      </c>
       <c r="AE26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM26" t="n">
         <v>6</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>18</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>7</v>
       </c>
       <c r="AN26" t="n">
         <v>3</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AP26" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AR26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS26" t="n">
         <v>29</v>
@@ -5236,25 +5236,25 @@
         <v>1</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BC26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5361,19 +5361,19 @@
         <v>-5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG27" t="n">
         <v>21</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
         <v>3</v>
@@ -5382,25 +5382,25 @@
         <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM27" t="n">
         <v>22</v>
       </c>
       <c r="AN27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP27" t="n">
         <v>21</v>
       </c>
-      <c r="AP27" t="n">
-        <v>22</v>
-      </c>
       <c r="AQ27" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
         <v>27</v>
@@ -5412,7 +5412,7 @@
         <v>25</v>
       </c>
       <c r="AU27" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV27" t="n">
         <v>26</v>
@@ -5561,7 +5561,7 @@
         <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
@@ -5570,10 +5570,10 @@
         <v>7</v>
       </c>
       <c r="AM28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN28" t="n">
         <v>9</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>8</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5728,10 +5728,10 @@
         <v>25</v>
       </c>
       <c r="AE29" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG29" t="n">
         <v>15</v>
@@ -5740,7 +5740,7 @@
         <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ29" t="n">
         <v>27</v>
@@ -5749,7 +5749,7 @@
         <v>7</v>
       </c>
       <c r="AL29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>20</v>
@@ -5761,7 +5761,7 @@
         <v>17</v>
       </c>
       <c r="AP29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
@@ -5779,13 +5779,13 @@
         <v>3</v>
       </c>
       <c r="AV29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
       </c>
       <c r="AX29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY29" t="n">
         <v>14</v>
@@ -5797,7 +5797,7 @@
         <v>19</v>
       </c>
       <c r="BB29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC29" t="n">
         <v>20</v>
@@ -5907,16 +5907,16 @@
         <v>3.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>15</v>
@@ -5946,7 +5946,7 @@
         <v>17</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5961,7 +5961,7 @@
         <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
         <v>7</v>
@@ -5979,7 +5979,7 @@
         <v>10</v>
       </c>
       <c r="BB30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC30" t="n">
         <v>9</v>
@@ -6089,13 +6089,13 @@
         <v>-9.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
       </c>
       <c r="AF31" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG31" t="n">
         <v>27</v>
@@ -6122,7 +6122,7 @@
         <v>30</v>
       </c>
       <c r="AO31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP31" t="n">
         <v>7</v>
@@ -6140,7 +6140,7 @@
         <v>28</v>
       </c>
       <c r="AU31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV31" t="n">
         <v>16</v>
@@ -6152,13 +6152,13 @@
         <v>19</v>
       </c>
       <c r="AY31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ31" t="n">
         <v>6</v>
       </c>
       <c r="BA31" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB31" t="n">
         <v>23</v>

--- a/Team-Data/2008-09/11-16-2008-09.xlsx
+++ b/Team-Data/2008-09/11-16-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,28 +811,28 @@
         <v>4</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>6</v>
       </c>
       <c r="AF2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ2" t="n">
         <v>13</v>
       </c>
       <c r="AK2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL2" t="n">
         <v>2</v>
@@ -780,43 +847,43 @@
         <v>18</v>
       </c>
       <c r="AP2" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>20</v>
+      </c>
+      <c r="AT2" t="n">
         <v>18</v>
       </c>
-      <c r="AS2" t="n">
-        <v>21</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>19</v>
-      </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA2" t="n">
         <v>17</v>
       </c>
       <c r="BB2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC2" t="n">
         <v>7</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
@@ -866,79 +933,79 @@
         <v>33</v>
       </c>
       <c r="J3" t="n">
-        <v>75.3</v>
+        <v>75.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="M3" t="n">
-        <v>16.9</v>
+        <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.314</v>
+        <v>0.306</v>
       </c>
       <c r="O3" t="n">
-        <v>23.4</v>
+        <v>23.2</v>
       </c>
       <c r="P3" t="n">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.78</v>
+        <v>0.763</v>
       </c>
       <c r="R3" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="S3" t="n">
-        <v>32.9</v>
+        <v>32.3</v>
       </c>
       <c r="T3" t="n">
-        <v>44</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>20.5</v>
+        <v>20.1</v>
       </c>
       <c r="V3" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>24.1</v>
+        <v>24.5</v>
       </c>
       <c r="AA3" t="n">
         <v>25.8</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.7</v>
+        <v>94.3</v>
       </c>
       <c r="AC3" t="n">
         <v>4.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AI3" t="n">
         <v>28</v>
@@ -947,13 +1014,13 @@
         <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN3" t="n">
         <v>24</v>
@@ -962,22 +1029,22 @@
         <v>2</v>
       </c>
       <c r="AP3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AQ3" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AT3" t="n">
         <v>10</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -986,13 +1053,13 @@
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AY3" t="n">
         <v>8</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA3" t="n">
         <v>2</v>
@@ -1001,7 +1068,7 @@
         <v>22</v>
       </c>
       <c r="BC3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -1030,97 +1097,97 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>0.333</v>
+        <v>0.375</v>
       </c>
       <c r="H4" t="n">
         <v>48</v>
       </c>
       <c r="I4" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="J4" t="n">
-        <v>73.09999999999999</v>
+        <v>73</v>
       </c>
       <c r="K4" t="n">
         <v>0.432</v>
       </c>
       <c r="L4" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>14.4</v>
+        <v>14.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.331</v>
+        <v>0.339</v>
       </c>
       <c r="O4" t="n">
-        <v>21</v>
+        <v>21.4</v>
       </c>
       <c r="P4" t="n">
-        <v>27.2</v>
+        <v>27.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.771</v>
+        <v>0.784</v>
       </c>
       <c r="R4" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S4" t="n">
-        <v>25.8</v>
+        <v>25.3</v>
       </c>
       <c r="T4" t="n">
-        <v>37.7</v>
+        <v>37.3</v>
       </c>
       <c r="U4" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="V4" t="n">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="W4" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="X4" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.90000000000001</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="AD4" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF4" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI4" t="n">
         <v>30</v>
@@ -1129,25 +1196,25 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
         <v>24</v>
       </c>
-      <c r="AM4" t="n">
-        <v>26</v>
-      </c>
       <c r="AN4" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
         <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AR4" t="n">
         <v>11</v>
@@ -1156,10 +1223,10 @@
         <v>30</v>
       </c>
       <c r="AT4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AU4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AV4" t="n">
         <v>19</v>
@@ -1171,13 +1238,13 @@
         <v>25</v>
       </c>
       <c r="AY4" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AZ4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.444</v>
+        <v>0.5</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
@@ -1230,43 +1297,43 @@
         <v>35.1</v>
       </c>
       <c r="J5" t="n">
-        <v>85.2</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.412</v>
+        <v>0.42</v>
       </c>
       <c r="L5" t="n">
         <v>5.3</v>
       </c>
       <c r="M5" t="n">
-        <v>14.7</v>
+        <v>14.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.364</v>
+        <v>0.368</v>
       </c>
       <c r="O5" t="n">
-        <v>21</v>
+        <v>22.2</v>
       </c>
       <c r="P5" t="n">
-        <v>26.3</v>
+        <v>28.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.797</v>
+        <v>0.79</v>
       </c>
       <c r="R5" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S5" t="n">
-        <v>32.6</v>
+        <v>31.9</v>
       </c>
       <c r="T5" t="n">
-        <v>45.2</v>
+        <v>44.7</v>
       </c>
       <c r="U5" t="n">
-        <v>17.6</v>
+        <v>18.5</v>
       </c>
       <c r="V5" t="n">
-        <v>13.6</v>
+        <v>14.1</v>
       </c>
       <c r="W5" t="n">
         <v>8.699999999999999</v>
@@ -1275,98 +1342,98 @@
         <v>5.8</v>
       </c>
       <c r="Y5" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>22.6</v>
+        <v>22.1</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>22.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AF5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG5" t="n">
         <v>15</v>
       </c>
-      <c r="AG5" t="n">
-        <v>18</v>
-      </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI5" t="n">
         <v>18</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL5" t="n">
         <v>18</v>
       </c>
       <c r="AM5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>24</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY5" t="n">
         <v>25</v>
       </c>
-      <c r="AN5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>27</v>
-      </c>
       <c r="AZ5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>14</v>
+      </c>
+      <c r="BC5" t="n">
         <v>15</v>
       </c>
-      <c r="BB5" t="n">
-        <v>18</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>18</v>
-      </c>
       <c r="BD5" t="n">
         <v>10</v>
       </c>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -1394,157 +1461,157 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
         <v>8</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0.889</v>
+        <v>0.8</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>37.7</v>
+        <v>36.8</v>
       </c>
       <c r="J6" t="n">
-        <v>77.8</v>
+        <v>76.8</v>
       </c>
       <c r="K6" t="n">
-        <v>0.484</v>
+        <v>0.479</v>
       </c>
       <c r="L6" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="M6" t="n">
-        <v>19.3</v>
+        <v>18.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.339</v>
+        <v>0.328</v>
       </c>
       <c r="O6" t="n">
-        <v>21</v>
+        <v>21.3</v>
       </c>
       <c r="P6" t="n">
-        <v>26.6</v>
+        <v>27.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.791</v>
+        <v>0.783</v>
       </c>
       <c r="R6" t="n">
-        <v>10.9</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="T6" t="n">
-        <v>39.6</v>
+        <v>39.7</v>
       </c>
       <c r="U6" t="n">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13.8</v>
       </c>
       <c r="W6" t="n">
         <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="Y6" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.4</v>
+        <v>21.9</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.9</v>
+        <v>101.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AJ6" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AT6" t="n">
         <v>23</v>
       </c>
-      <c r="AK6" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AU6" t="n">
         <v>8</v>
       </c>
-      <c r="AP6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>25</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>22</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>6</v>
-      </c>
       <c r="AV6" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>9</v>
       </c>
       <c r="AX6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB6" t="n">
         <v>5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>4</v>
       </c>
       <c r="BC6" t="n">
         <v>2</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -1576,160 +1643,160 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>7</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3</v>
+        <v>0.222</v>
       </c>
       <c r="H7" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="I7" t="n">
-        <v>37.2</v>
+        <v>36.1</v>
       </c>
       <c r="J7" t="n">
-        <v>86.90000000000001</v>
+        <v>84.7</v>
       </c>
       <c r="K7" t="n">
-        <v>0.428</v>
+        <v>0.427</v>
       </c>
       <c r="L7" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M7" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.305</v>
+        <v>0.294</v>
       </c>
       <c r="O7" t="n">
-        <v>18.6</v>
+        <v>18.1</v>
       </c>
       <c r="P7" t="n">
-        <v>23.6</v>
+        <v>22.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.788</v>
+        <v>0.795</v>
       </c>
       <c r="R7" t="n">
-        <v>13.3</v>
+        <v>12.8</v>
       </c>
       <c r="S7" t="n">
-        <v>33.9</v>
+        <v>33.2</v>
       </c>
       <c r="T7" t="n">
-        <v>47.2</v>
+        <v>46</v>
       </c>
       <c r="U7" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="V7" t="n">
-        <v>13.6</v>
+        <v>14</v>
       </c>
       <c r="W7" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="X7" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="Z7" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="AA7" t="n">
         <v>19.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>98.7</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>-2.2</v>
+        <v>-3.6</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK7" t="n">
         <v>25</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>24</v>
       </c>
       <c r="AL7" t="n">
         <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AQ7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AR7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AT7" t="n">
         <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY7" t="n">
         <v>12</v>
       </c>
-      <c r="AX7" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>8</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA7" t="n">
         <v>26</v>
       </c>
       <c r="BB7" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BC7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -1758,130 +1825,130 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="n">
         <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.556</v>
       </c>
       <c r="H8" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I8" t="n">
-        <v>34.8</v>
+        <v>35.6</v>
       </c>
       <c r="J8" t="n">
-        <v>79.90000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0.436</v>
+        <v>0.447</v>
       </c>
       <c r="L8" t="n">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="M8" t="n">
-        <v>16.2</v>
+        <v>15.4</v>
       </c>
       <c r="N8" t="n">
-        <v>0.315</v>
+        <v>0.295</v>
       </c>
       <c r="O8" t="n">
         <v>23.7</v>
       </c>
       <c r="P8" t="n">
-        <v>30.6</v>
+        <v>30.3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.775</v>
+        <v>0.78</v>
       </c>
       <c r="R8" t="n">
-        <v>10.5</v>
+        <v>10.2</v>
       </c>
       <c r="S8" t="n">
-        <v>32.5</v>
+        <v>32.9</v>
       </c>
       <c r="T8" t="n">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="U8" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V8" t="n">
-        <v>16.2</v>
+        <v>16.9</v>
       </c>
       <c r="W8" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X8" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y8" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="Z8" t="n">
         <v>23.2</v>
       </c>
       <c r="AA8" t="n">
-        <v>24.7</v>
+        <v>24.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>98.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC8" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI8" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="n">
         <v>21</v>
       </c>
-      <c r="AM8" t="n">
-        <v>17</v>
-      </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AT8" t="n">
         <v>11</v>
@@ -1890,16 +1957,16 @@
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
       </c>
       <c r="AX8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AZ8" t="n">
         <v>23</v>
@@ -1908,10 +1975,10 @@
         <v>4</v>
       </c>
       <c r="BB8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BC8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -1940,160 +2007,160 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" t="n">
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>0.7</v>
+        <v>0.778</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>35.6</v>
+        <v>35.9</v>
       </c>
       <c r="J9" t="n">
-        <v>80.40000000000001</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0.443</v>
+        <v>0.448</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="M9" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="N9" t="n">
-        <v>0.387</v>
+        <v>0.401</v>
       </c>
       <c r="O9" t="n">
-        <v>21.7</v>
+        <v>22.2</v>
       </c>
       <c r="P9" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.792</v>
+        <v>0.803</v>
       </c>
       <c r="R9" t="n">
-        <v>12.8</v>
+        <v>12.3</v>
       </c>
       <c r="S9" t="n">
-        <v>30.2</v>
+        <v>30.7</v>
       </c>
       <c r="T9" t="n">
         <v>43</v>
       </c>
       <c r="U9" t="n">
-        <v>20.7</v>
+        <v>21</v>
       </c>
       <c r="V9" t="n">
-        <v>13.3</v>
+        <v>13.2</v>
       </c>
       <c r="W9" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="X9" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.7</v>
+        <v>22.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.90000000000001</v>
+        <v>100.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>2.6</v>
+        <v>4.9</v>
       </c>
       <c r="AD9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE9" t="n">
         <v>3</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG9" t="n">
         <v>4</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AH9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN9" t="n">
         <v>4</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AO9" t="n">
         <v>5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>6</v>
       </c>
       <c r="AP9" t="n">
         <v>9</v>
       </c>
       <c r="AQ9" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX9" t="n">
         <v>7</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AY9" t="n">
         <v>6</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AZ9" t="n">
         <v>17</v>
       </c>
-      <c r="AT9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV9" t="n">
+      <c r="BA9" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB9" t="n">
         <v>7</v>
       </c>
-      <c r="AW9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>8</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>8</v>
-      </c>
       <c r="BC9" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -2209,7 +2276,7 @@
         <v>22</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH10" t="n">
         <v>4</v>
@@ -2224,16 +2291,16 @@
         <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM10" t="n">
         <v>13</v>
       </c>
       <c r="AN10" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP10" t="n">
         <v>1</v>
@@ -2242,13 +2309,13 @@
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU10" t="n">
         <v>21</v>
@@ -2257,7 +2324,7 @@
         <v>18</v>
       </c>
       <c r="AW10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX10" t="n">
         <v>4</v>
@@ -2266,16 +2333,16 @@
         <v>24</v>
       </c>
       <c r="AZ10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
       </c>
       <c r="BB10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -2400,46 +2467,46 @@
         <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
         <v>13</v>
       </c>
       <c r="AM11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
         <v>16</v>
       </c>
       <c r="AP11" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
         <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>12</v>
       </c>
       <c r="AT11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV11" t="n">
         <v>7</v>
       </c>
       <c r="AW11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2451,13 +2518,13 @@
         <v>1</v>
       </c>
       <c r="BA11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB11" t="n">
         <v>27</v>
       </c>
       <c r="BC11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -2564,28 +2631,28 @@
         <v>2</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
         <v>18</v>
       </c>
       <c r="AF12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH12" t="n">
         <v>15</v>
       </c>
-      <c r="AG12" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>17</v>
-      </c>
       <c r="AI12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL12" t="n">
         <v>9</v>
@@ -2597,28 +2664,28 @@
         <v>18</v>
       </c>
       <c r="AO12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AQ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU12" t="n">
         <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW12" t="n">
         <v>11</v>
@@ -2627,16 +2694,16 @@
         <v>2</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA12" t="n">
         <v>21</v>
       </c>
       <c r="BB12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC12" t="n">
         <v>13</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -2746,25 +2813,25 @@
         <v>-13.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
       </c>
       <c r="AF13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI13" t="n">
         <v>27</v>
       </c>
       <c r="AJ13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2794,7 +2861,7 @@
         <v>26</v>
       </c>
       <c r="AT13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU13" t="n">
         <v>22</v>
@@ -2803,7 +2870,7 @@
         <v>20</v>
       </c>
       <c r="AW13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AX13" t="n">
         <v>5</v>
@@ -2815,7 +2882,7 @@
         <v>27</v>
       </c>
       <c r="BA13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB13" t="n">
         <v>29</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -2850,97 +2917,97 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
         <v>7</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.857</v>
+        <v>0.875</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J14" t="n">
-        <v>85.59999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="K14" t="n">
-        <v>0.439</v>
+        <v>0.442</v>
       </c>
       <c r="L14" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M14" t="n">
-        <v>17.6</v>
+        <v>16.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.366</v>
+        <v>0.391</v>
       </c>
       <c r="O14" t="n">
+        <v>22</v>
+      </c>
+      <c r="P14" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="R14" t="n">
+        <v>14</v>
+      </c>
+      <c r="S14" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="V14" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="W14" t="n">
+        <v>10</v>
+      </c>
+      <c r="X14" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="AA14" t="n">
         <v>23</v>
       </c>
-      <c r="P14" t="n">
-        <v>30.6</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.752</v>
-      </c>
-      <c r="R14" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="S14" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="T14" t="n">
-        <v>48.4</v>
-      </c>
-      <c r="U14" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="V14" t="n">
-        <v>14</v>
-      </c>
-      <c r="W14" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="X14" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>21.1</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>23.9</v>
-      </c>
       <c r="AB14" t="n">
-        <v>104.6</v>
+        <v>103.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>13.6</v>
+        <v>14.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
       </c>
       <c r="AG14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>6</v>
@@ -2952,55 +3019,55 @@
         <v>16</v>
       </c>
       <c r="AL14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AP14" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
         <v>19</v>
       </c>
       <c r="AR14" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS14" t="n">
         <v>1</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>3</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
       <c r="AX14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>9</v>
       </c>
-      <c r="AY14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>12</v>
-      </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -3113,10 +3180,10 @@
         <v>3</v>
       </c>
       <c r="AE15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
         <v>25</v>
@@ -3128,49 +3195,49 @@
         <v>25</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL15" t="n">
         <v>27</v>
       </c>
       <c r="AM15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
         <v>12</v>
       </c>
       <c r="AR15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS15" t="n">
         <v>12</v>
       </c>
       <c r="AT15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW15" t="n">
         <v>8</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
         <v>14</v>
@@ -3179,7 +3246,7 @@
         <v>21</v>
       </c>
       <c r="BA15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BB15" t="n">
         <v>25</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -3214,106 +3281,106 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5</v>
+        <v>0.556</v>
       </c>
       <c r="H16" t="n">
         <v>48</v>
       </c>
       <c r="I16" t="n">
-        <v>36</v>
+        <v>35.9</v>
       </c>
       <c r="J16" t="n">
-        <v>79.59999999999999</v>
+        <v>78.2</v>
       </c>
       <c r="K16" t="n">
-        <v>0.452</v>
+        <v>0.459</v>
       </c>
       <c r="L16" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M16" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.35</v>
+        <v>0.353</v>
       </c>
       <c r="O16" t="n">
-        <v>19.2</v>
+        <v>19.8</v>
       </c>
       <c r="P16" t="n">
-        <v>25.4</v>
+        <v>26.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.756</v>
+        <v>0.745</v>
       </c>
       <c r="R16" t="n">
-        <v>11.3</v>
+        <v>10.9</v>
       </c>
       <c r="S16" t="n">
-        <v>27.9</v>
+        <v>28.8</v>
       </c>
       <c r="T16" t="n">
-        <v>39.2</v>
+        <v>39.7</v>
       </c>
       <c r="U16" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="V16" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="W16" t="n">
-        <v>9.300000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="X16" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.1</v>
+        <v>19.7</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="AB16" t="n">
-        <v>98.7</v>
+        <v>99</v>
       </c>
       <c r="AC16" t="n">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH16" t="n">
         <v>15</v>
       </c>
-      <c r="AG16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17</v>
-      </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AK16" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AL16" t="n">
         <v>8</v>
@@ -3325,22 +3392,22 @@
         <v>15</v>
       </c>
       <c r="AO16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ16" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AR16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AS16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AT16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU16" t="n">
         <v>20</v>
@@ -3352,22 +3419,22 @@
         <v>3</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AY16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA16" t="n">
         <v>20</v>
       </c>
       <c r="BB16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BC16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -3396,109 +3463,109 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.455</v>
       </c>
       <c r="H17" t="n">
-        <v>49.5</v>
+        <v>49.4</v>
       </c>
       <c r="I17" t="n">
-        <v>34.7</v>
+        <v>34.9</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.422</v>
+        <v>0.426</v>
       </c>
       <c r="L17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="M17" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="N17" t="n">
-        <v>0.351</v>
+        <v>0.358</v>
       </c>
       <c r="O17" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="P17" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="Q17" t="n">
         <v>0.751</v>
       </c>
       <c r="R17" t="n">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="S17" t="n">
-        <v>31.5</v>
+        <v>30.4</v>
       </c>
       <c r="T17" t="n">
-        <v>45.5</v>
+        <v>44.3</v>
       </c>
       <c r="U17" t="n">
         <v>20.5</v>
       </c>
       <c r="V17" t="n">
-        <v>16</v>
+        <v>16.3</v>
       </c>
       <c r="W17" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="X17" t="n">
         <v>3.3</v>
       </c>
       <c r="Y17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.8</v>
+        <v>25.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>25.3</v>
+        <v>24.6</v>
       </c>
       <c r="AB17" t="n">
         <v>94.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.1</v>
+        <v>-1.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
         <v>2</v>
       </c>
       <c r="AI17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AJ17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
         <v>26</v>
       </c>
       <c r="AL17" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AM17" t="n">
         <v>27</v>
@@ -3507,10 +3574,10 @@
         <v>14</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
@@ -3519,16 +3586,16 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AU17" t="n">
         <v>11</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AW17" t="n">
         <v>26</v>
@@ -3537,19 +3604,19 @@
         <v>27</v>
       </c>
       <c r="AY17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>3</v>
       </c>
       <c r="BB17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BC17" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -3578,64 +3645,64 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>0.111</v>
+        <v>0.125</v>
       </c>
       <c r="H18" t="n">
-        <v>49.7</v>
+        <v>49.9</v>
       </c>
       <c r="I18" t="n">
-        <v>37.3</v>
+        <v>38.1</v>
       </c>
       <c r="J18" t="n">
-        <v>86.90000000000001</v>
+        <v>88</v>
       </c>
       <c r="K18" t="n">
-        <v>0.43</v>
+        <v>0.433</v>
       </c>
       <c r="L18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="M18" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.291</v>
+        <v>0.289</v>
       </c>
       <c r="O18" t="n">
         <v>17.9</v>
       </c>
       <c r="P18" t="n">
-        <v>22.2</v>
+        <v>21.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.805</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="R18" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="S18" t="n">
-        <v>29.2</v>
+        <v>28.3</v>
       </c>
       <c r="T18" t="n">
-        <v>41</v>
+        <v>40.3</v>
       </c>
       <c r="U18" t="n">
         <v>23.9</v>
       </c>
       <c r="V18" t="n">
-        <v>12.6</v>
+        <v>11.8</v>
       </c>
       <c r="W18" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="X18" t="n">
         <v>4.6</v>
@@ -3644,25 +3711,25 @@
         <v>5.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>24.1</v>
+        <v>23.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.7</v>
+        <v>20.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>96.90000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-5</v>
+        <v>-4.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
       </c>
       <c r="AF18" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
         <v>28</v>
@@ -3671,13 +3738,13 @@
         <v>1</v>
       </c>
       <c r="AI18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AJ18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AK18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL18" t="n">
         <v>28</v>
@@ -3689,31 +3756,31 @@
         <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
         <v>3</v>
       </c>
       <c r="AR18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS18" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AT18" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AU18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV18" t="n">
         <v>3</v>
       </c>
       <c r="AW18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AX18" t="n">
         <v>23</v>
@@ -3722,16 +3789,16 @@
         <v>23</v>
       </c>
       <c r="AZ18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BA18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BC18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -3838,55 +3905,55 @@
         <v>-3.8</v>
       </c>
       <c r="AD19" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH19" t="n">
         <v>15</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>17</v>
       </c>
       <c r="AI19" t="n">
         <v>24</v>
       </c>
       <c r="AJ19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AK19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM19" t="n">
         <v>10</v>
       </c>
       <c r="AN19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO19" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ19" t="n">
         <v>6</v>
       </c>
       <c r="AR19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS19" t="n">
         <v>23</v>
       </c>
       <c r="AT19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU19" t="n">
         <v>23</v>
@@ -3895,22 +3962,22 @@
         <v>15</v>
       </c>
       <c r="AW19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA19" t="n">
         <v>17</v>
       </c>
       <c r="BB19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -4020,16 +4087,16 @@
         <v>2.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
         <v>9</v>
       </c>
       <c r="AG20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH20" t="n">
         <v>30</v>
@@ -4044,19 +4111,19 @@
         <v>10</v>
       </c>
       <c r="AL20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN20" t="n">
         <v>6</v>
       </c>
       <c r="AO20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ20" t="n">
         <v>15</v>
@@ -4068,13 +4135,13 @@
         <v>24</v>
       </c>
       <c r="AT20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU20" t="n">
         <v>16</v>
       </c>
       <c r="AV20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW20" t="n">
         <v>9</v>
@@ -4083,13 +4150,13 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -4124,64 +4191,64 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E21" t="n">
         <v>6</v>
       </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6</v>
+        <v>0.667</v>
       </c>
       <c r="H21" t="n">
-        <v>48.5</v>
+        <v>48</v>
       </c>
       <c r="I21" t="n">
-        <v>39.1</v>
+        <v>38.4</v>
       </c>
       <c r="J21" t="n">
-        <v>87.8</v>
+        <v>86</v>
       </c>
       <c r="K21" t="n">
-        <v>0.445</v>
+        <v>0.447</v>
       </c>
       <c r="L21" t="n">
         <v>11</v>
       </c>
       <c r="M21" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="N21" t="n">
-        <v>0.389</v>
+        <v>0.391</v>
       </c>
       <c r="O21" t="n">
-        <v>16.5</v>
+        <v>16.9</v>
       </c>
       <c r="P21" t="n">
-        <v>22</v>
+        <v>22.7</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="R21" t="n">
-        <v>10.7</v>
+        <v>10.2</v>
       </c>
       <c r="S21" t="n">
-        <v>31.6</v>
+        <v>30.8</v>
       </c>
       <c r="T21" t="n">
-        <v>42.3</v>
+        <v>41</v>
       </c>
       <c r="U21" t="n">
-        <v>23.9</v>
+        <v>23.2</v>
       </c>
       <c r="V21" t="n">
         <v>14.6</v>
       </c>
       <c r="W21" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="X21" t="n">
         <v>1.4</v>
@@ -4193,37 +4260,37 @@
         <v>20.2</v>
       </c>
       <c r="AA21" t="n">
-        <v>18.3</v>
+        <v>18.4</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.7</v>
+        <v>104.8</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>6</v>
       </c>
       <c r="AF21" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AG21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
         <v>1</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AK21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4238,46 +4305,46 @@
         <v>28</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>22</v>
       </c>
       <c r="AR21" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AS21" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AT21" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AU21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV21" t="n">
         <v>17</v>
       </c>
       <c r="AW21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ21" t="n">
         <v>8</v>
       </c>
       <c r="BA21" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BB21" t="n">
         <v>1</v>
       </c>
       <c r="BC21" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -4396,13 +4463,13 @@
         <v>30</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AK22" t="n">
         <v>30</v>
@@ -4420,7 +4487,7 @@
         <v>27</v>
       </c>
       <c r="AP22" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AQ22" t="n">
         <v>24</v>
@@ -4429,25 +4496,25 @@
         <v>7</v>
       </c>
       <c r="AS22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AV22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
         <v>19</v>
       </c>
       <c r="AX22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY22" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AZ22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -4488,161 +4555,161 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F23" t="n">
         <v>3</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7</v>
+        <v>0.667</v>
       </c>
       <c r="H23" t="n">
         <v>48</v>
       </c>
       <c r="I23" t="n">
-        <v>35.2</v>
+        <v>35.6</v>
       </c>
       <c r="J23" t="n">
-        <v>79.59999999999999</v>
+        <v>80.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L23" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M23" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="N23" t="n">
-        <v>0.313</v>
+        <v>0.318</v>
       </c>
       <c r="O23" t="n">
-        <v>20.8</v>
+        <v>21</v>
       </c>
       <c r="P23" t="n">
-        <v>29.7</v>
+        <v>30.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.7</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="R23" t="n">
-        <v>11.9</v>
+        <v>12.3</v>
       </c>
       <c r="S23" t="n">
-        <v>32.6</v>
+        <v>32.9</v>
       </c>
       <c r="T23" t="n">
-        <v>44.5</v>
+        <v>45.2</v>
       </c>
       <c r="U23" t="n">
-        <v>16.7</v>
+        <v>17</v>
       </c>
       <c r="V23" t="n">
         <v>13.8</v>
       </c>
       <c r="W23" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X23" t="n">
         <v>7.4</v>
       </c>
-      <c r="X23" t="n">
-        <v>7.7</v>
-      </c>
       <c r="Y23" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z23" t="n">
         <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC23" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ23" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK23" t="n">
         <v>15</v>
       </c>
       <c r="AL23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO23" t="n">
         <v>11</v>
       </c>
       <c r="AP23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT23" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AU23" t="n">
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX23" t="n">
         <v>1</v>
       </c>
       <c r="AY23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC23" t="n">
         <v>4</v>
       </c>
-      <c r="AZ23" t="n">
-        <v>10</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>6</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>3</v>
-      </c>
       <c r="BD23" t="n">
         <v>10</v>
       </c>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -4751,25 +4818,25 @@
         <v>3</v>
       </c>
       <c r="AE24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
         <v>5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
         <v>22</v>
@@ -4784,13 +4851,13 @@
         <v>26</v>
       </c>
       <c r="AP24" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AQ24" t="n">
         <v>20</v>
       </c>
       <c r="AR24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS24" t="n">
         <v>1</v>
@@ -4799,10 +4866,10 @@
         <v>1</v>
       </c>
       <c r="AU24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW24" t="n">
         <v>25</v>
@@ -4820,7 +4887,7 @@
         <v>27</v>
       </c>
       <c r="BB24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC24" t="n">
         <v>8</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -4852,151 +4919,151 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F25" t="n">
         <v>3</v>
       </c>
       <c r="G25" t="n">
-        <v>0.727</v>
+        <v>0.7</v>
       </c>
       <c r="H25" t="n">
         <v>48.5</v>
       </c>
       <c r="I25" t="n">
-        <v>36.5</v>
+        <v>36</v>
       </c>
       <c r="J25" t="n">
-        <v>72.90000000000001</v>
+        <v>73</v>
       </c>
       <c r="K25" t="n">
-        <v>0.5</v>
+        <v>0.493</v>
       </c>
       <c r="L25" t="n">
         <v>6.2</v>
       </c>
       <c r="M25" t="n">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.386</v>
+        <v>0.378</v>
       </c>
       <c r="O25" t="n">
-        <v>21.7</v>
+        <v>22.3</v>
       </c>
       <c r="P25" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.747</v>
+        <v>0.764</v>
       </c>
       <c r="R25" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S25" t="n">
-        <v>32.3</v>
+        <v>32.4</v>
       </c>
       <c r="T25" t="n">
-        <v>40.5</v>
+        <v>40.6</v>
       </c>
       <c r="U25" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="V25" t="n">
-        <v>17.1</v>
+        <v>17.4</v>
       </c>
       <c r="W25" t="n">
         <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="Y25" t="n">
         <v>4.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AA25" t="n">
-        <v>23</v>
+        <v>22.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP25" t="n">
         <v>5</v>
       </c>
-      <c r="AP25" t="n">
-        <v>6</v>
-      </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AR25" t="n">
         <v>29</v>
       </c>
       <c r="AS25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AY25" t="n">
         <v>10</v>
       </c>
       <c r="AZ25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA25" t="n">
         <v>9</v>
@@ -5005,7 +5072,7 @@
         <v>6</v>
       </c>
       <c r="BC25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -5034,127 +5101,127 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="n">
         <v>6</v>
       </c>
       <c r="F26" t="n">
+        <v>4</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H26" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>34.6</v>
+      </c>
+      <c r="J26" t="n">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8</v>
+      </c>
+      <c r="M26" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="O26" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="P26" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="R26" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="S26" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>39</v>
+      </c>
+      <c r="U26" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="V26" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="AD26" t="n">
         <v>3</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.667</v>
-      </c>
-      <c r="H26" t="n">
-        <v>48.6</v>
-      </c>
-      <c r="I26" t="n">
-        <v>35.2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>77.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.453</v>
-      </c>
-      <c r="L26" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="M26" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0.402</v>
-      </c>
-      <c r="O26" t="n">
-        <v>18.4</v>
-      </c>
-      <c r="P26" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0.787</v>
-      </c>
-      <c r="R26" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>27</v>
-      </c>
-      <c r="T26" t="n">
-        <v>38.4</v>
-      </c>
-      <c r="U26" t="n">
-        <v>19.7</v>
-      </c>
-      <c r="V26" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="W26" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="X26" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>96.7</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM26" t="n">
         <v>6</v>
       </c>
-      <c r="AI26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>7</v>
-      </c>
       <c r="AN26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO26" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AP26" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AR26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS26" t="n">
         <v>29</v>
@@ -5169,7 +5236,7 @@
         <v>1</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX26" t="n">
         <v>15</v>
@@ -5178,16 +5245,16 @@
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BC26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -5216,124 +5283,124 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G27" t="n">
-        <v>0.364</v>
+        <v>0.4</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
       </c>
       <c r="I27" t="n">
-        <v>37.7</v>
+        <v>38.2</v>
       </c>
       <c r="J27" t="n">
-        <v>78.7</v>
+        <v>79.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.479</v>
+        <v>0.482</v>
       </c>
       <c r="L27" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="M27" t="n">
         <v>15.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.317</v>
+        <v>0.309</v>
       </c>
       <c r="O27" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="P27" t="n">
-        <v>22.6</v>
+        <v>23</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.795</v>
+        <v>0.791</v>
       </c>
       <c r="R27" t="n">
         <v>9.4</v>
       </c>
       <c r="S27" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="T27" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="U27" t="n">
-        <v>19.9</v>
+        <v>20.3</v>
       </c>
       <c r="V27" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="W27" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="X27" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="Y27" t="n">
         <v>5.3</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.1</v>
+        <v>21.4</v>
       </c>
       <c r="AB27" t="n">
-        <v>98.3</v>
+        <v>99.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.8</v>
+        <v>-5.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>18</v>
       </c>
       <c r="AF27" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AG27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH27" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
         <v>3</v>
       </c>
       <c r="AJ27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM27" t="n">
         <v>22</v>
       </c>
       <c r="AN27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO27" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AP27" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AR27" t="n">
         <v>27</v>
@@ -5342,34 +5409,34 @@
         <v>18</v>
       </c>
       <c r="AT27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA27" t="n">
         <v>15</v>
       </c>
-      <c r="AV27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>18</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>19</v>
-      </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BC27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -5398,115 +5465,115 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
         <v>5</v>
       </c>
       <c r="G28" t="n">
-        <v>0.444</v>
+        <v>0.375</v>
       </c>
       <c r="H28" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="I28" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J28" t="n">
-        <v>77.59999999999999</v>
+        <v>78</v>
       </c>
       <c r="K28" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L28" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="M28" t="n">
         <v>19.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.397</v>
+        <v>0.39</v>
       </c>
       <c r="O28" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="P28" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.735</v>
+        <v>0.732</v>
       </c>
       <c r="R28" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>31.2</v>
+        <v>31.6</v>
       </c>
       <c r="T28" t="n">
-        <v>39.2</v>
+        <v>39.9</v>
       </c>
       <c r="U28" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V28" t="n">
-        <v>11.9</v>
+        <v>11.6</v>
       </c>
       <c r="W28" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="X28" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.3</v>
+        <v>18.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>91.90000000000001</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>-2.6</v>
+        <v>-3.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE28" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AF28" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG28" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AH28" t="n">
         <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AK28" t="n">
         <v>5</v>
       </c>
       <c r="AL28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN28" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,19 +5582,19 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR28" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AS28" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AT28" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5545,13 +5612,13 @@
         <v>4</v>
       </c>
       <c r="BA28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BB28" t="n">
         <v>26</v>
       </c>
       <c r="BC28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -5580,94 +5647,94 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F29" t="n">
         <v>4</v>
       </c>
       <c r="G29" t="n">
-        <v>0.556</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>48.6</v>
       </c>
       <c r="I29" t="n">
-        <v>34.8</v>
+        <v>34.6</v>
       </c>
       <c r="J29" t="n">
         <v>75.8</v>
       </c>
       <c r="K29" t="n">
-        <v>0.459</v>
+        <v>0.457</v>
       </c>
       <c r="L29" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M29" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="N29" t="n">
-        <v>0.401</v>
+        <v>0.408</v>
       </c>
       <c r="O29" t="n">
-        <v>19.9</v>
+        <v>18.8</v>
       </c>
       <c r="P29" t="n">
-        <v>24</v>
+        <v>22.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.829</v>
+        <v>0.824</v>
       </c>
       <c r="R29" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="S29" t="n">
-        <v>29.9</v>
+        <v>29.1</v>
       </c>
       <c r="T29" t="n">
-        <v>38.4</v>
+        <v>36.8</v>
       </c>
       <c r="U29" t="n">
-        <v>24.2</v>
+        <v>23.4</v>
       </c>
       <c r="V29" t="n">
-        <v>14.2</v>
+        <v>13.5</v>
       </c>
       <c r="W29" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="X29" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
         <v>18</v>
       </c>
       <c r="AA29" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="AB29" t="n">
-        <v>95.8</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.2</v>
+        <v>-1.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AE29" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AF29" t="n">
         <v>9</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
@@ -5676,65 +5743,65 @@
         <v>21</v>
       </c>
       <c r="AJ29" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AL29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM29" t="n">
         <v>20</v>
       </c>
       <c r="AN29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP29" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AQ29" t="n">
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT29" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AU29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AV29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY29" t="n">
         <v>14</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>28</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>20</v>
       </c>
       <c r="AZ29" t="n">
         <v>3</v>
       </c>
       <c r="BA29" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="BB29" t="n">
+        <v>21</v>
+      </c>
+      <c r="BC29" t="n">
         <v>20</v>
       </c>
-      <c r="BC29" t="n">
-        <v>19</v>
-      </c>
       <c r="BD29" t="n">
         <v>10</v>
       </c>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -5852,13 +5919,13 @@
         <v>9</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5879,40 +5946,40 @@
         <v>17</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AU30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW30" t="n">
         <v>7</v>
       </c>
       <c r="AX30" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AY30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA30" t="n">
         <v>10</v>
       </c>
       <c r="BB30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BC30" t="n">
         <v>9</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-9.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE31" t="n">
         <v>27</v>
@@ -6043,10 +6110,10 @@
         <v>18</v>
       </c>
       <c r="AK31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AM31" t="n">
         <v>18</v>
@@ -6055,7 +6122,7 @@
         <v>30</v>
       </c>
       <c r="AO31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP31" t="n">
         <v>7</v>
@@ -6064,31 +6131,31 @@
         <v>28</v>
       </c>
       <c r="AR31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS31" t="n">
         <v>28</v>
       </c>
       <c r="AT31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV31" t="n">
         <v>16</v>
       </c>
       <c r="AW31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY31" t="n">
         <v>16</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA31" t="n">
         <v>7</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-16-2008-09</t>
+          <t>2008-11-16</t>
         </is>
       </c>
     </row>
